--- a/map/standard(7x7).xlsx
+++ b/map/standard(7x7).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X\Desktop\精班棋重制版\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F5DFE-E46E-4A74-8F46-609787611894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990F25D0-B0D7-4702-A60F-6167CFC22311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,90 +163,84 @@
   </si>
   <si>
     <t>X[1]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>X[-1]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4(Y[7]),5(Y[1]),6(Y[4|5|6]),8(Y[2|3|4]);7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1(Y[4|5|6]),3(Y[2|3|4]),4(Y[7]),5(Y[1]);2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,3;2,4(Y[7]),5(Y[1]),7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6,8;2,4(Y[7]),5(Y[1]),7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1(R[11|1|0|1|2|4|6|7]&amp;T[11]),2,3(R[11|1|0|2|3|5|7|8]&amp;T[11]),4(R[11|1|3|1|4|6]&amp;T[11]),5(R[11|1|3|3|5|8]&amp;T[11]);</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1(R[9|1|0|1|2|4|6|7]),2,3(R[9|1|0|2|3|5|7|8]),4(R[9|1|3|1|4|6]),5(R[9|1|3|3|5|8]);</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4(R[12|1|3|1|4|6]&amp;T[12]),5(R[12|1|3|3|5|8]&amp;T[12]),6(R[12|1|0|1|2|4|6|7]&amp;T[12]),7,8(R[12|1|0|2|3|5|7|8]&amp;T[12]);</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4(R[10|1|3|1|4|6]),5(R[10|1|3|3|5|8]),6(R[10|1|0|1|2|4|6|7]),7,8(R[10|1|0|2|3|5|7|8]);</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4,5,7;2,7(R[11|1|0|6|7|8])</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4,5,7;2,7(R[9|1|0|6|7|8])</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2,4,5;2(R[12|1|0|1|2|3]),7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2,4,5;2(R[10|1|0|1|2|3]),7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>启用悔棋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"13"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"21"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -334,39 +328,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,433 +671,433 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" customWidth="1"/>
-    <col min="5" max="5" width="88.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="88.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="G12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="G13" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="G14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="G15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="G17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="8" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1121,153 +1112,154 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="5.5546875" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="9">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="10">
         <v>7</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>12</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>6</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>16</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>16</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>18</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
         <v>17</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>17</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
         <v>15</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>15</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>7</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1283,56 +1275,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
